--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Pdgfc-Pdgfra.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Pdgfc-Pdgfra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Pdgfra</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>4.90430861797028</v>
+        <v>0.276989</v>
       </c>
       <c r="H2">
-        <v>4.90430861797028</v>
+        <v>0.830967</v>
       </c>
       <c r="I2">
-        <v>0.2506845036670048</v>
+        <v>0.0126770351133645</v>
       </c>
       <c r="J2">
-        <v>0.2506845036670048</v>
+        <v>0.0126770351133645</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.182606966702135</v>
+        <v>0.236283</v>
       </c>
       <c r="N2">
-        <v>0.182606966702135</v>
+        <v>0.708849</v>
       </c>
       <c r="O2">
-        <v>0.001134153584084728</v>
+        <v>0.001461516295904947</v>
       </c>
       <c r="P2">
-        <v>0.001134153584084728</v>
+        <v>0.001461516295904947</v>
       </c>
       <c r="Q2">
-        <v>0.8955609204986926</v>
+        <v>0.06544779188699999</v>
       </c>
       <c r="R2">
-        <v>0.8955609204986926</v>
+        <v>0.5890301269829999</v>
       </c>
       <c r="S2">
-        <v>0.0002843147283084345</v>
+        <v>1.852769340194144E-05</v>
       </c>
       <c r="T2">
-        <v>0.0002843147283084345</v>
+        <v>1.852769340194144E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>4.90430861797028</v>
+        <v>0.276989</v>
       </c>
       <c r="H3">
-        <v>4.90430861797028</v>
+        <v>0.830967</v>
       </c>
       <c r="I3">
-        <v>0.2506845036670048</v>
+        <v>0.0126770351133645</v>
       </c>
       <c r="J3">
-        <v>0.2506845036670048</v>
+        <v>0.0126770351133645</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>160.311776197413</v>
+        <v>160.8390196666666</v>
       </c>
       <c r="N3">
-        <v>160.311776197413</v>
+        <v>482.517059</v>
       </c>
       <c r="O3">
-        <v>0.9956803884808131</v>
+        <v>0.9948614511421033</v>
       </c>
       <c r="P3">
-        <v>0.9956803884808131</v>
+        <v>0.9948614511421032</v>
       </c>
       <c r="Q3">
-        <v>786.2184255670953</v>
+        <v>44.55063921845032</v>
       </c>
       <c r="R3">
-        <v>786.2184255670953</v>
+        <v>400.955752966053</v>
       </c>
       <c r="S3">
-        <v>0.2496016439972831</v>
+        <v>0.01261189354906121</v>
       </c>
       <c r="T3">
-        <v>0.2496016439972831</v>
+        <v>0.01261189354906121</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>4.90430861797028</v>
+        <v>0.276989</v>
       </c>
       <c r="H4">
-        <v>4.90430861797028</v>
+        <v>0.830967</v>
       </c>
       <c r="I4">
-        <v>0.2506845036670048</v>
+        <v>0.0126770351133645</v>
       </c>
       <c r="J4">
-        <v>0.2506845036670048</v>
+        <v>0.0126770351133645</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.101171799072301</v>
+        <v>0.119972</v>
       </c>
       <c r="N4">
-        <v>0.101171799072301</v>
+        <v>0.359916</v>
       </c>
       <c r="O4">
-        <v>0.0006283679127824237</v>
+        <v>0.0007420806111836584</v>
       </c>
       <c r="P4">
-        <v>0.0006283679127824237</v>
+        <v>0.0007420806111836582</v>
       </c>
       <c r="Q4">
-        <v>0.4961777260858434</v>
+        <v>0.033230924308</v>
       </c>
       <c r="R4">
-        <v>0.4961777260858434</v>
+        <v>0.299078318772</v>
       </c>
       <c r="S4">
-        <v>0.0001575220983361336</v>
+        <v>9.407381964922229E-06</v>
       </c>
       <c r="T4">
-        <v>0.0001575220983361336</v>
+        <v>9.407381964922224E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>4.90430861797028</v>
+        <v>0.276989</v>
       </c>
       <c r="H5">
-        <v>4.90430861797028</v>
+        <v>0.830967</v>
       </c>
       <c r="I5">
-        <v>0.2506845036670048</v>
+        <v>0.0126770351133645</v>
       </c>
       <c r="J5">
-        <v>0.2506845036670048</v>
+        <v>0.0126770351133645</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.411710070939749</v>
+        <v>0.474493</v>
       </c>
       <c r="N5">
-        <v>0.411710070939749</v>
+        <v>1.423479</v>
       </c>
       <c r="O5">
-        <v>0.002557090022319693</v>
+        <v>0.002934951950808252</v>
       </c>
       <c r="P5">
-        <v>0.002557090022319693</v>
+        <v>0.002934951950808251</v>
       </c>
       <c r="Q5">
-        <v>2.019153249014966</v>
+        <v>0.131429341577</v>
       </c>
       <c r="R5">
-        <v>2.019153249014966</v>
+        <v>1.182864074193</v>
       </c>
       <c r="S5">
-        <v>0.0006410228430770624</v>
+        <v>3.720648893643386E-05</v>
       </c>
       <c r="T5">
-        <v>0.0006410228430770624</v>
+        <v>3.720648893643384E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.79729912003313</v>
+        <v>5.827140333333332</v>
       </c>
       <c r="H6">
-        <v>1.79729912003313</v>
+        <v>17.481421</v>
       </c>
       <c r="I6">
-        <v>0.09186922621381004</v>
+        <v>0.2666924051719354</v>
       </c>
       <c r="J6">
-        <v>0.09186922621381004</v>
+        <v>0.2666924051719353</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.182606966702135</v>
+        <v>0.236283</v>
       </c>
       <c r="N6">
-        <v>0.182606966702135</v>
+        <v>0.708849</v>
       </c>
       <c r="O6">
-        <v>0.001134153584084728</v>
+        <v>0.001461516295904947</v>
       </c>
       <c r="P6">
-        <v>0.001134153584084728</v>
+        <v>0.001461516295904947</v>
       </c>
       <c r="Q6">
-        <v>0.3281993405656663</v>
+        <v>1.376854199381</v>
       </c>
       <c r="R6">
-        <v>0.3281993405656663</v>
+        <v>12.391687794429</v>
       </c>
       <c r="S6">
-        <v>0.0001041938121774833</v>
+        <v>0.0003897752961528684</v>
       </c>
       <c r="T6">
-        <v>0.0001041938121774833</v>
+        <v>0.0003897752961528682</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.79729912003313</v>
+        <v>5.827140333333332</v>
       </c>
       <c r="H7">
-        <v>1.79729912003313</v>
+        <v>17.481421</v>
       </c>
       <c r="I7">
-        <v>0.09186922621381004</v>
+        <v>0.2666924051719354</v>
       </c>
       <c r="J7">
-        <v>0.09186922621381004</v>
+        <v>0.2666924051719353</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>160.311776197413</v>
+        <v>160.8390196666666</v>
       </c>
       <c r="N7">
-        <v>160.311776197413</v>
+        <v>482.517059</v>
       </c>
       <c r="O7">
-        <v>0.9956803884808131</v>
+        <v>0.9948614511421033</v>
       </c>
       <c r="P7">
-        <v>0.9956803884808131</v>
+        <v>0.9948614511421032</v>
       </c>
       <c r="Q7">
-        <v>288.1282142905584</v>
+        <v>937.2315386734263</v>
       </c>
       <c r="R7">
-        <v>288.1282142905584</v>
+        <v>8435.083848060836</v>
       </c>
       <c r="S7">
-        <v>0.09147238684599808</v>
+        <v>0.2653219932179294</v>
       </c>
       <c r="T7">
-        <v>0.09147238684599808</v>
+        <v>0.2653219932179293</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.79729912003313</v>
+        <v>5.827140333333332</v>
       </c>
       <c r="H8">
-        <v>1.79729912003313</v>
+        <v>17.481421</v>
       </c>
       <c r="I8">
-        <v>0.09186922621381004</v>
+        <v>0.2666924051719354</v>
       </c>
       <c r="J8">
-        <v>0.09186922621381004</v>
+        <v>0.2666924051719353</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.101171799072301</v>
+        <v>0.119972</v>
       </c>
       <c r="N8">
-        <v>0.101171799072301</v>
+        <v>0.359916</v>
       </c>
       <c r="O8">
-        <v>0.0006283679127824237</v>
+        <v>0.0007420806111836584</v>
       </c>
       <c r="P8">
-        <v>0.0006283679127824237</v>
+        <v>0.0007420806111836582</v>
       </c>
       <c r="Q8">
-        <v>0.1818359854448152</v>
+        <v>0.6990936800706666</v>
       </c>
       <c r="R8">
-        <v>0.1818359854448152</v>
+        <v>6.291843120635999</v>
       </c>
       <c r="S8">
-        <v>5.772767392490813E-05</v>
+        <v>0.0001979072630280297</v>
       </c>
       <c r="T8">
-        <v>5.772767392490813E-05</v>
+        <v>0.0001979072630280295</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.79729912003313</v>
+        <v>5.827140333333332</v>
       </c>
       <c r="H9">
-        <v>1.79729912003313</v>
+        <v>17.481421</v>
       </c>
       <c r="I9">
-        <v>0.09186922621381004</v>
+        <v>0.2666924051719354</v>
       </c>
       <c r="J9">
-        <v>0.09186922621381004</v>
+        <v>0.2666924051719353</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.411710070939749</v>
+        <v>0.474493</v>
       </c>
       <c r="N9">
-        <v>0.411710070939749</v>
+        <v>1.423479</v>
       </c>
       <c r="O9">
-        <v>0.002557090022319693</v>
+        <v>0.002934951950808252</v>
       </c>
       <c r="P9">
-        <v>0.002557090022319693</v>
+        <v>0.002934951950808251</v>
       </c>
       <c r="Q9">
-        <v>0.7399661482087884</v>
+        <v>2.764937298184333</v>
       </c>
       <c r="R9">
-        <v>0.7399661482087884</v>
+        <v>24.884435683659</v>
       </c>
       <c r="S9">
-        <v>0.0002349178817095644</v>
+        <v>0.0007827293948251164</v>
       </c>
       <c r="T9">
-        <v>0.0002349178817095644</v>
+        <v>0.0007827293948251161</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>12.8620611215799</v>
+        <v>2.750881</v>
       </c>
       <c r="H10">
-        <v>12.8620611215799</v>
+        <v>8.252642999999999</v>
       </c>
       <c r="I10">
-        <v>0.6574462701191852</v>
+        <v>0.1259003607713204</v>
       </c>
       <c r="J10">
-        <v>0.6574462701191852</v>
+        <v>0.1259003607713204</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.182606966702135</v>
+        <v>0.236283</v>
       </c>
       <c r="N10">
-        <v>0.182606966702135</v>
+        <v>0.708849</v>
       </c>
       <c r="O10">
-        <v>0.001134153584084728</v>
+        <v>0.001461516295904947</v>
       </c>
       <c r="P10">
-        <v>0.001134153584084728</v>
+        <v>0.001461516295904947</v>
       </c>
       <c r="Q10">
-        <v>2.348701966949166</v>
+        <v>0.6499864153229999</v>
       </c>
       <c r="R10">
-        <v>2.348701966949166</v>
+        <v>5.849877737906999</v>
       </c>
       <c r="S10">
-        <v>0.0007456450435988099</v>
+        <v>0.0001840054289275967</v>
       </c>
       <c r="T10">
-        <v>0.0007456450435988099</v>
+        <v>0.0001840054289275966</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1080,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>12.8620611215799</v>
+        <v>2.750881</v>
       </c>
       <c r="H11">
-        <v>12.8620611215799</v>
+        <v>8.252642999999999</v>
       </c>
       <c r="I11">
-        <v>0.6574462701191852</v>
+        <v>0.1259003607713204</v>
       </c>
       <c r="J11">
-        <v>0.6574462701191852</v>
+        <v>0.1259003607713204</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>160.311776197413</v>
+        <v>160.8390196666666</v>
       </c>
       <c r="N11">
-        <v>160.311776197413</v>
+        <v>482.517059</v>
       </c>
       <c r="O11">
-        <v>0.9956803884808131</v>
+        <v>0.9948614511421033</v>
       </c>
       <c r="P11">
-        <v>0.9956803884808131</v>
+        <v>0.9948614511421032</v>
       </c>
       <c r="Q11">
-        <v>2061.939863960164</v>
+        <v>442.4490032596595</v>
       </c>
       <c r="R11">
-        <v>2061.939863960164</v>
+        <v>3982.041029336936</v>
       </c>
       <c r="S11">
-        <v>0.6546063576375319</v>
+        <v>0.1252534156162702</v>
       </c>
       <c r="T11">
-        <v>0.6546063576375319</v>
+        <v>0.1252534156162701</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>12.8620611215799</v>
+        <v>2.750881</v>
       </c>
       <c r="H12">
-        <v>12.8620611215799</v>
+        <v>8.252642999999999</v>
       </c>
       <c r="I12">
-        <v>0.6574462701191852</v>
+        <v>0.1259003607713204</v>
       </c>
       <c r="J12">
-        <v>0.6574462701191852</v>
+        <v>0.1259003607713204</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.101171799072301</v>
+        <v>0.119972</v>
       </c>
       <c r="N12">
-        <v>0.101171799072301</v>
+        <v>0.359916</v>
       </c>
       <c r="O12">
-        <v>0.0006283679127824237</v>
+        <v>0.0007420806111836584</v>
       </c>
       <c r="P12">
-        <v>0.0006283679127824237</v>
+        <v>0.0007420806111836582</v>
       </c>
       <c r="Q12">
-        <v>1.301277863448136</v>
+        <v>0.330028695332</v>
       </c>
       <c r="R12">
-        <v>1.301277863448136</v>
+        <v>2.970258257988</v>
       </c>
       <c r="S12">
-        <v>0.0004131181405213819</v>
+        <v>9.342821666942452E-05</v>
       </c>
       <c r="T12">
-        <v>0.0004131181405213819</v>
+        <v>9.342821666942447E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2.750881</v>
+      </c>
+      <c r="H13">
+        <v>8.252642999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.1259003607713204</v>
+      </c>
+      <c r="J13">
+        <v>0.1259003607713204</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.474493</v>
+      </c>
+      <c r="N13">
+        <v>1.423479</v>
+      </c>
+      <c r="O13">
+        <v>0.002934951950808252</v>
+      </c>
+      <c r="P13">
+        <v>0.002934951950808251</v>
+      </c>
+      <c r="Q13">
+        <v>1.305273778333</v>
+      </c>
+      <c r="R13">
+        <v>11.747464004997</v>
+      </c>
+      <c r="S13">
+        <v>0.0003695115094532495</v>
+      </c>
+      <c r="T13">
+        <v>0.0003695115094532493</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>12.994657</v>
+      </c>
+      <c r="H14">
+        <v>38.983971</v>
+      </c>
+      <c r="I14">
+        <v>0.5947301989433799</v>
+      </c>
+      <c r="J14">
+        <v>0.5947301989433798</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.236283</v>
+      </c>
+      <c r="N14">
+        <v>0.708849</v>
+      </c>
+      <c r="O14">
+        <v>0.001461516295904947</v>
+      </c>
+      <c r="P14">
+        <v>0.001461516295904947</v>
+      </c>
+      <c r="Q14">
+        <v>3.070416539931</v>
+      </c>
+      <c r="R14">
+        <v>27.633748859379</v>
+      </c>
+      <c r="S14">
+        <v>0.0008692078774225409</v>
+      </c>
+      <c r="T14">
+        <v>0.0008692078774225405</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>12.994657</v>
+      </c>
+      <c r="H15">
+        <v>38.983971</v>
+      </c>
+      <c r="I15">
+        <v>0.5947301989433799</v>
+      </c>
+      <c r="J15">
+        <v>0.5947301989433798</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>160.8390196666666</v>
+      </c>
+      <c r="N15">
+        <v>482.517059</v>
+      </c>
+      <c r="O15">
+        <v>0.9948614511421033</v>
+      </c>
+      <c r="P15">
+        <v>0.9948614511421032</v>
+      </c>
+      <c r="Q15">
+        <v>2090.047892784587</v>
+      </c>
+      <c r="R15">
+        <v>18810.43103506129</v>
+      </c>
+      <c r="S15">
+        <v>0.5916741487588427</v>
+      </c>
+      <c r="T15">
+        <v>0.5916741487588425</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>12.8620611215799</v>
-      </c>
-      <c r="H13">
-        <v>12.8620611215799</v>
-      </c>
-      <c r="I13">
-        <v>0.6574462701191852</v>
-      </c>
-      <c r="J13">
-        <v>0.6574462701191852</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.411710070939749</v>
-      </c>
-      <c r="N13">
-        <v>0.411710070939749</v>
-      </c>
-      <c r="O13">
-        <v>0.002557090022319693</v>
-      </c>
-      <c r="P13">
-        <v>0.002557090022319693</v>
-      </c>
-      <c r="Q13">
-        <v>5.295440096797048</v>
-      </c>
-      <c r="R13">
-        <v>5.295440096797048</v>
-      </c>
-      <c r="S13">
-        <v>0.001681149297533066</v>
-      </c>
-      <c r="T13">
-        <v>0.001681149297533066</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>12.994657</v>
+      </c>
+      <c r="H16">
+        <v>38.983971</v>
+      </c>
+      <c r="I16">
+        <v>0.5947301989433799</v>
+      </c>
+      <c r="J16">
+        <v>0.5947301989433798</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.119972</v>
+      </c>
+      <c r="N16">
+        <v>0.359916</v>
+      </c>
+      <c r="O16">
+        <v>0.0007420806111836584</v>
+      </c>
+      <c r="P16">
+        <v>0.0007420806111836582</v>
+      </c>
+      <c r="Q16">
+        <v>1.558994989604</v>
+      </c>
+      <c r="R16">
+        <v>14.030954906436</v>
+      </c>
+      <c r="S16">
+        <v>0.000441337749521282</v>
+      </c>
+      <c r="T16">
+        <v>0.0004413377495212818</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>12.994657</v>
+      </c>
+      <c r="H17">
+        <v>38.983971</v>
+      </c>
+      <c r="I17">
+        <v>0.5947301989433799</v>
+      </c>
+      <c r="J17">
+        <v>0.5947301989433798</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.474493</v>
+      </c>
+      <c r="N17">
+        <v>1.423479</v>
+      </c>
+      <c r="O17">
+        <v>0.002934951950808252</v>
+      </c>
+      <c r="P17">
+        <v>0.002934951950808251</v>
+      </c>
+      <c r="Q17">
+        <v>6.165873783901</v>
+      </c>
+      <c r="R17">
+        <v>55.492864055109</v>
+      </c>
+      <c r="S17">
+        <v>0.001745504557593452</v>
+      </c>
+      <c r="T17">
+        <v>0.001745504557593452</v>
       </c>
     </row>
   </sheetData>
